--- a/data/2023/ssg/28,1_DE-1+DE-1a.xlsx
+++ b/data/2023/ssg/28,1_DE-1+DE-1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -133,12 +133,39 @@
     <t>0</t>
   </si>
   <si>
+    <t>2178165-5</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>kt;d</t>
+  </si>
+  <si>
+    <t>Yellowcities</t>
+  </si>
+  <si>
+    <t>Endoxon</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>ger;fre;ita</t>
+  </si>
+  <si>
+    <t>1.2004 -</t>
+  </si>
+  <si>
     <t>2584326-6</t>
   </si>
   <si>
     <t>TIM-online RP</t>
   </si>
   <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
     <t>Koblenz</t>
   </si>
   <si>
@@ -146,30 +173,6 @@
   </si>
   <si>
     <t>Nachgewiesen 2006 -</t>
-  </si>
-  <si>
-    <t>2178165-5</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>kt;d</t>
-  </si>
-  <si>
-    <t>Yellowcities</t>
-  </si>
-  <si>
-    <t>Endoxon</t>
-  </si>
-  <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>ger;fre;ita</t>
-  </si>
-  <si>
-    <t>1.2004 -</t>
   </si>
   <si>
     <t>2699788-5</t>
@@ -759,22 +762,22 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
@@ -807,7 +810,7 @@
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -833,25 +836,25 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -884,7 +887,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -919,16 +922,16 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -940,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -961,10 +964,10 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
         <v>37</v>
@@ -987,7 +990,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -996,16 +999,16 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -1014,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
@@ -1038,10 +1041,10 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
         <v>37</v>
@@ -1064,7 +1067,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1073,16 +1076,16 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -1115,10 +1118,10 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s">
         <v>37</v>
@@ -1141,25 +1144,25 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -1192,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -1218,25 +1221,25 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1269,7 +1272,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
